--- a/Research_protoype/Project Outputs for Research_protoype/BOM/BOM.xlsx
+++ b/Research_protoype/Project Outputs for Research_protoype/BOM/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6259c21e4bbd27ec/Documents/Research/Altium/Research_protoype/Project Outputs for Research_protoype/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6259c21e4bbd27ec/Documents/Research/Altium/EV_Charger/Research_protoype/Project Outputs for Research_protoype/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{9D64E347-FA08-4232-9131-E9585073D855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D82AD2CC-D82F-40C4-B7DD-701F3105E641}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{9D64E347-FA08-4232-9131-E9585073D855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F77FB11-02FA-41BB-819D-054111C8B192}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3110219F-3018-4BDA-B8C0-990BA326522A}"/>
   </bookViews>
@@ -506,36 +506,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
@@ -855,14 +836,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DB2B35-C51A-46C0-B31D-709D926ACB84}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.21875" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="73.109375" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="39.109375" customWidth="1"/>
@@ -979,13 +960,13 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>110</v>
       </c>
       <c r="J4">
@@ -1017,13 +998,13 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J5">
@@ -1076,9 +1057,9 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="M7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1146,13 +1127,13 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="10" t="s">
         <v>112</v>
       </c>
       <c r="J10">
@@ -1330,7 +1311,7 @@
       <c r="I15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="6">
         <v>0.247</v>
       </c>
       <c r="K15">
@@ -1517,16 +1498,16 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="10">
         <v>0.62</v>
       </c>
       <c r="L21">
@@ -1553,13 +1534,13 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="10" t="s">
         <v>120</v>
       </c>
       <c r="J22">
